--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV109-001 -  Profile Fixed Income - Fixed Income Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV109-001 -  Profile Fixed Income - Fixed Income Ubah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B6F5B-04D3-4433-930B-E65B4C63217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACB8F5B-C161-4225-AD55-7B6BD6734B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,17 +121,17 @@
     <t>Edit dapat dilakukan dengan baik</t>
   </si>
   <si>
+    <t>Obligasi III Mitra Jaya Tahun 2019</t>
+  </si>
+  <si>
+    <t>OBL00108</t>
+  </si>
+  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
-Kode Fixed Income : Hasil Generate;
+Kode Fixed Income : OBL00108;
 Nama Fixed Income : Obligasi III Mitra Jaya Tahun 2019</t>
-  </si>
-  <si>
-    <t>Obligasi III Mitra Jaya Tahun 2019</t>
-  </si>
-  <si>
-    <t>OBL00107</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -650,7 +650,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4">
         <v>31246</v>
@@ -671,13 +671,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
